--- a/phase_I/CxFPoolsEuro2020_PhaseI_AdamAlGededi.xlsx
+++ b/phase_I/CxFPoolsEuro2020_PhaseI_AdamAlGededi.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukeaarohi/pyfiles/EURO2020/phase_I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABF031-4889-4886-8EDA-2AFE0CC61A77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8A3A92-952D-834B-912B-913D0424889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="vgG/epmm7NjsTdVwX9iBzIU5shiiCtARjNuWodo7y419AcMSriaq3jDUeRC0n7fHjZPt0I68wN8Tr2jgEo1fyA==" workbookSaltValue="xcDVmDhqHI6MTRUJYwzs1Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="2" r:id="rId1"/>
@@ -148,19 +148,30 @@
     <definedName name="Teams">'Setup | Game Regulation'!$C$5:$C$20</definedName>
     <definedName name="Venues">'Dummy Table'!$C$50:$C$59</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -175,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="144">
   <si>
     <t>SETUP</t>
   </si>
@@ -2569,6 +2580,190 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="40" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="41" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2581,6 +2776,26 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2592,6 +2807,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2637,98 +2872,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2739,138 +2882,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="40" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="41" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3677,77 +3688,77 @@
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U4" sqref="U4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="13" customWidth="1"/>
-    <col min="2" max="3" width="3.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="14" customWidth="1"/>
-    <col min="6" max="7" width="3.109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="13" customWidth="1"/>
+    <col min="2" max="3" width="3.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="14" customWidth="1"/>
+    <col min="6" max="7" width="3.1640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="22" style="14" customWidth="1"/>
     <col min="9" max="9" width="0.6640625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="0.44140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="0.5" style="14" customWidth="1"/>
     <col min="11" max="11" width="0.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="3.77734375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="1.44140625" style="14" customWidth="1"/>
-    <col min="15" max="20" width="3.77734375" style="14" customWidth="1"/>
-    <col min="21" max="21" width="3.77734375" style="15" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" style="24" customWidth="1"/>
-    <col min="23" max="24" width="3.77734375" style="14" customWidth="1"/>
-    <col min="25" max="25" width="1.44140625" style="14" customWidth="1"/>
-    <col min="26" max="28" width="3.77734375" style="14" customWidth="1"/>
-    <col min="29" max="29" width="2.77734375" style="14" customWidth="1"/>
-    <col min="30" max="31" width="3.77734375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="14" customWidth="1"/>
+    <col min="14" max="14" width="1.5" style="14" customWidth="1"/>
+    <col min="15" max="20" width="3.83203125" style="14" customWidth="1"/>
+    <col min="21" max="21" width="3.83203125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="3.83203125" style="24" customWidth="1"/>
+    <col min="23" max="24" width="3.83203125" style="14" customWidth="1"/>
+    <col min="25" max="25" width="1.5" style="14" customWidth="1"/>
+    <col min="26" max="28" width="3.83203125" style="14" customWidth="1"/>
+    <col min="29" max="29" width="2.83203125" style="14" customWidth="1"/>
+    <col min="30" max="31" width="3.83203125" style="14" customWidth="1"/>
     <col min="32" max="32" width="3" style="14" customWidth="1"/>
-    <col min="33" max="33" width="9.109375" style="14" customWidth="1"/>
-    <col min="34" max="34" width="9.109375" style="13" customWidth="1"/>
-    <col min="35" max="97" width="9.109375" style="14" customWidth="1"/>
-    <col min="98" max="16384" width="9.109375" style="14"/>
+    <col min="33" max="33" width="9.1640625" style="14" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" style="13" customWidth="1"/>
+    <col min="35" max="97" width="9.1640625" style="14" customWidth="1"/>
+    <col min="98" max="16384" width="9.1640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="B1" s="238" t="s">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="B1" s="247" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="247"/>
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="247"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="257" t="s">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="263" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
       <c r="E2" s="204" t="s">
         <v>132</v>
       </c>
@@ -3766,66 +3777,66 @@
       <c r="T2" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="U2" s="259" t="s">
+      <c r="U2" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="260"/>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="261"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="240"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
       <c r="E3" s="205" t="s">
         <v>131</v>
       </c>
       <c r="G3" s="157"/>
       <c r="H3" s="157"/>
-      <c r="I3" s="237" t="s">
+      <c r="I3" s="274" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="274"/>
       <c r="O3" s="160"/>
       <c r="P3" s="157"/>
       <c r="Q3" s="157"/>
       <c r="R3" s="157"/>
       <c r="S3" s="157"/>
       <c r="T3" s="158"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="262"/>
-      <c r="AA3" s="262"/>
-      <c r="AB3" s="262"/>
-      <c r="AC3" s="263"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="241"/>
+      <c r="AA3" s="241"/>
+      <c r="AB3" s="241"/>
+      <c r="AC3" s="242"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="258"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="205" t="s">
         <v>107</v>
       </c>
       <c r="G4" s="157"/>
       <c r="H4" s="157"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
       <c r="O4" s="160"/>
       <c r="P4" s="157"/>
       <c r="Q4" s="157"/>
@@ -3834,19 +3845,19 @@
       <c r="T4" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="264" t="s">
+      <c r="U4" s="243" t="s">
         <v>141</v>
       </c>
-      <c r="V4" s="265"/>
-      <c r="W4" s="265"/>
-      <c r="X4" s="265"/>
-      <c r="Y4" s="265"/>
-      <c r="Z4" s="265"/>
-      <c r="AA4" s="265"/>
-      <c r="AB4" s="265"/>
-      <c r="AC4" s="266"/>
+      <c r="V4" s="244"/>
+      <c r="W4" s="244"/>
+      <c r="X4" s="244"/>
+      <c r="Y4" s="244"/>
+      <c r="Z4" s="244"/>
+      <c r="AA4" s="244"/>
+      <c r="AB4" s="244"/>
+      <c r="AC4" s="245"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
       <c r="B5" s="162"/>
       <c r="C5" s="162"/>
       <c r="D5" s="162"/>
@@ -3876,7 +3887,7 @@
       <c r="AB5" s="157"/>
       <c r="AC5" s="201"/>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
       <c r="B6" s="162"/>
       <c r="C6" s="162"/>
       <c r="D6" s="162"/>
@@ -3913,7 +3924,7 @@
       <c r="AH6" s="165"/>
       <c r="AI6" s="165"/>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
       <c r="B7" s="162"/>
       <c r="C7" s="162"/>
       <c r="D7" s="162"/>
@@ -3950,7 +3961,7 @@
       <c r="AH7" s="165"/>
       <c r="AI7" s="165"/>
     </row>
-    <row r="8" spans="1:103" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:103" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="162"/>
       <c r="C8" s="162"/>
       <c r="D8" s="162"/>
@@ -3964,7 +3975,7 @@
       <c r="AD8" s="166"/>
       <c r="AI8" s="167"/>
     </row>
-    <row r="9" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3980,10 +3991,10 @@
       <c r="E9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="267" t="s">
+      <c r="F9" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="267"/>
+      <c r="G9" s="246"/>
       <c r="H9" s="29" t="s">
         <v>31</v>
       </c>
@@ -4019,7 +4030,7 @@
       <c r="AH9" s="16"/>
       <c r="CY9" s="14"/>
     </row>
-    <row r="10" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f>MAX(A11:A62)</f>
         <v>3</v>
@@ -4039,13 +4050,13 @@
       <c r="L10" s="32"/>
       <c r="M10" s="34"/>
       <c r="N10" s="31"/>
-      <c r="O10" s="242" t="s">
+      <c r="O10" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="243"/>
-      <c r="Q10" s="243"/>
-      <c r="R10" s="243"/>
-      <c r="S10" s="243"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="215"/>
+      <c r="R10" s="215"/>
+      <c r="S10" s="215"/>
       <c r="T10" s="35" t="s">
         <v>37</v>
       </c>
@@ -4080,7 +4091,7 @@
       </c>
       <c r="CY10" s="14"/>
     </row>
-    <row r="11" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="37">
         <v>1</v>
@@ -4106,7 +4117,7 @@
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="268">
+      <c r="L11" s="275">
         <v>1</v>
       </c>
       <c r="M11" s="43" t="str">
@@ -4117,13 +4128,13 @@
       <c r="O11" s="120">
         <v>1</v>
       </c>
-      <c r="P11" s="271" t="str">
+      <c r="P11" s="234" t="str">
         <f>VLOOKUP(1,'Dummy Table'!A4:B8,2,FALSE)</f>
         <v>Italy</v>
       </c>
-      <c r="Q11" s="271"/>
-      <c r="R11" s="271"/>
-      <c r="S11" s="271"/>
+      <c r="Q11" s="234"/>
+      <c r="R11" s="234"/>
+      <c r="S11" s="234"/>
       <c r="T11" s="44">
         <f>SUM(U11:W11)</f>
         <v>3</v>
@@ -4168,7 +4179,7 @@
       </c>
       <c r="CY11" s="14"/>
     </row>
-    <row r="12" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="46">
         <v>2</v>
@@ -4194,7 +4205,7 @@
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
-      <c r="L12" s="269"/>
+      <c r="L12" s="220"/>
       <c r="M12" s="52" t="str">
         <f t="shared" ref="M12:M45" si="0">IF(F12&lt;&gt;"",IF(F12&gt;G12,E12,IF(F12&lt;G12,H12,"")),"")</f>
         <v/>
@@ -4203,13 +4214,13 @@
       <c r="O12" s="120">
         <v>2</v>
       </c>
-      <c r="P12" s="272" t="str">
+      <c r="P12" s="235" t="str">
         <f>VLOOKUP(2,'Dummy Table'!A4:B8,2,FALSE)</f>
         <v>Turkey</v>
       </c>
-      <c r="Q12" s="272"/>
-      <c r="R12" s="272"/>
-      <c r="S12" s="272"/>
+      <c r="Q12" s="235"/>
+      <c r="R12" s="235"/>
+      <c r="S12" s="235"/>
       <c r="T12" s="53">
         <f t="shared" ref="T12:T14" si="1">SUM(U12:W12)</f>
         <v>3</v>
@@ -4254,7 +4265,7 @@
       </c>
       <c r="CY12" s="14"/>
     </row>
-    <row r="13" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="46">
         <v>3</v>
@@ -4280,7 +4291,7 @@
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="269"/>
+      <c r="L13" s="220"/>
       <c r="M13" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Denmark</v>
@@ -4289,13 +4300,13 @@
       <c r="O13" s="121">
         <v>3</v>
       </c>
-      <c r="P13" s="273" t="str">
+      <c r="P13" s="236" t="str">
         <f>VLOOKUP(3,'Dummy Table'!A4:B8,2,FALSE)</f>
         <v>Switzerland</v>
       </c>
-      <c r="Q13" s="273"/>
-      <c r="R13" s="273"/>
-      <c r="S13" s="273"/>
+      <c r="Q13" s="236"/>
+      <c r="R13" s="236"/>
+      <c r="S13" s="236"/>
       <c r="T13" s="54">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4340,7 +4351,7 @@
       </c>
       <c r="CY13" s="14"/>
     </row>
-    <row r="14" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="46">
         <v>4</v>
@@ -4366,7 +4377,7 @@
       <c r="I14" s="51"/>
       <c r="J14" s="51"/>
       <c r="K14" s="51"/>
-      <c r="L14" s="269"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Belgium</v>
@@ -4375,13 +4386,13 @@
       <c r="O14" s="122">
         <v>4</v>
       </c>
-      <c r="P14" s="247" t="str">
+      <c r="P14" s="218" t="str">
         <f>VLOOKUP(4,'Dummy Table'!A4:B8,2,FALSE)</f>
         <v>Wales</v>
       </c>
-      <c r="Q14" s="247"/>
-      <c r="R14" s="247"/>
-      <c r="S14" s="247"/>
+      <c r="Q14" s="218"/>
+      <c r="R14" s="218"/>
+      <c r="S14" s="218"/>
       <c r="T14" s="55">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4426,7 +4437,7 @@
       </c>
       <c r="CY14" s="14"/>
     </row>
-    <row r="15" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="46">
         <v>5</v>
@@ -4452,19 +4463,19 @@
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
       <c r="K15" s="51"/>
-      <c r="L15" s="269"/>
+      <c r="L15" s="220"/>
       <c r="M15" s="52" t="str">
         <f t="shared" si="0"/>
         <v>England</v>
       </c>
       <c r="N15" s="31"/>
-      <c r="O15" s="242" t="s">
+      <c r="O15" s="214" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="243"/>
-      <c r="Q15" s="243"/>
-      <c r="R15" s="243"/>
-      <c r="S15" s="243"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="215"/>
+      <c r="R15" s="215"/>
+      <c r="S15" s="215"/>
       <c r="T15" s="35" t="s">
         <v>37</v>
       </c>
@@ -4499,7 +4510,7 @@
       </c>
       <c r="CY15" s="14"/>
     </row>
-    <row r="16" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="46">
         <v>6</v>
@@ -4525,7 +4536,7 @@
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
       <c r="K16" s="51"/>
-      <c r="L16" s="269"/>
+      <c r="L16" s="220"/>
       <c r="M16" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Austria</v>
@@ -4534,13 +4545,13 @@
       <c r="O16" s="123">
         <v>1</v>
       </c>
-      <c r="P16" s="244" t="str">
+      <c r="P16" s="251" t="str">
         <f>VLOOKUP(1,'Dummy Table'!A11:B15,2,FALSE)</f>
         <v>Belgium</v>
       </c>
-      <c r="Q16" s="244"/>
-      <c r="R16" s="244"/>
-      <c r="S16" s="244"/>
+      <c r="Q16" s="251"/>
+      <c r="R16" s="251"/>
+      <c r="S16" s="251"/>
       <c r="T16" s="56">
         <f>SUM(U16:W16)</f>
         <v>3</v>
@@ -4585,7 +4596,7 @@
       </c>
       <c r="CY16" s="14"/>
     </row>
-    <row r="17" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="46">
         <v>7</v>
@@ -4611,7 +4622,7 @@
       <c r="I17" s="51"/>
       <c r="J17" s="51"/>
       <c r="K17" s="51"/>
-      <c r="L17" s="269"/>
+      <c r="L17" s="220"/>
       <c r="M17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Netherlands</v>
@@ -4620,13 +4631,13 @@
       <c r="O17" s="123">
         <v>2</v>
       </c>
-      <c r="P17" s="245" t="str">
+      <c r="P17" s="252" t="str">
         <f>VLOOKUP(2,'Dummy Table'!A11:B15,2,FALSE)</f>
         <v>Russia</v>
       </c>
-      <c r="Q17" s="245"/>
-      <c r="R17" s="245"/>
-      <c r="S17" s="245"/>
+      <c r="Q17" s="252"/>
+      <c r="R17" s="252"/>
+      <c r="S17" s="252"/>
       <c r="T17" s="58">
         <f t="shared" ref="T17:T19" si="2">SUM(U17:W17)</f>
         <v>3</v>
@@ -4671,7 +4682,7 @@
       </c>
       <c r="CY17" s="14"/>
     </row>
-    <row r="18" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="46">
         <v>8</v>
@@ -4697,7 +4708,7 @@
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
       <c r="K18" s="51"/>
-      <c r="L18" s="269"/>
+      <c r="L18" s="220"/>
       <c r="M18" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4706,13 +4717,13 @@
       <c r="O18" s="124">
         <v>3</v>
       </c>
-      <c r="P18" s="246" t="str">
+      <c r="P18" s="253" t="str">
         <f>VLOOKUP(3,'Dummy Table'!A11:B15,2,FALSE)</f>
         <v>Denmark</v>
       </c>
-      <c r="Q18" s="246"/>
-      <c r="R18" s="246"/>
-      <c r="S18" s="246"/>
+      <c r="Q18" s="253"/>
+      <c r="R18" s="253"/>
+      <c r="S18" s="253"/>
       <c r="T18" s="59">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4757,7 +4768,7 @@
       </c>
       <c r="CY18" s="14"/>
     </row>
-    <row r="19" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="46">
         <v>9</v>
@@ -4783,7 +4794,7 @@
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
       <c r="K19" s="51"/>
-      <c r="L19" s="269"/>
+      <c r="L19" s="220"/>
       <c r="M19" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Poland</v>
@@ -4792,13 +4803,13 @@
       <c r="O19" s="122">
         <v>4</v>
       </c>
-      <c r="P19" s="247" t="str">
+      <c r="P19" s="218" t="str">
         <f>VLOOKUP(4,'Dummy Table'!A11:B15,2,FALSE)</f>
         <v>Finland</v>
       </c>
-      <c r="Q19" s="247"/>
-      <c r="R19" s="247"/>
-      <c r="S19" s="247"/>
+      <c r="Q19" s="218"/>
+      <c r="R19" s="218"/>
+      <c r="S19" s="218"/>
       <c r="T19" s="55">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4843,7 +4854,7 @@
       </c>
       <c r="CY19" s="14"/>
     </row>
-    <row r="20" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="46">
         <v>10</v>
@@ -4869,19 +4880,19 @@
       <c r="I20" s="51"/>
       <c r="J20" s="51"/>
       <c r="K20" s="51"/>
-      <c r="L20" s="269"/>
+      <c r="L20" s="220"/>
       <c r="M20" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Spain</v>
       </c>
       <c r="N20" s="31"/>
-      <c r="O20" s="242" t="s">
+      <c r="O20" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="243"/>
-      <c r="Q20" s="243"/>
-      <c r="R20" s="243"/>
-      <c r="S20" s="243"/>
+      <c r="P20" s="215"/>
+      <c r="Q20" s="215"/>
+      <c r="R20" s="215"/>
+      <c r="S20" s="215"/>
       <c r="T20" s="35" t="s">
         <v>37</v>
       </c>
@@ -4916,7 +4927,7 @@
       </c>
       <c r="CY20" s="14"/>
     </row>
-    <row r="21" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="46">
         <v>11</v>
@@ -4942,7 +4953,7 @@
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
-      <c r="L21" s="269"/>
+      <c r="L21" s="220"/>
       <c r="M21" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Portugal</v>
@@ -4951,13 +4962,13 @@
       <c r="O21" s="125">
         <v>1</v>
       </c>
-      <c r="P21" s="253" t="str">
+      <c r="P21" s="259" t="str">
         <f>VLOOKUP(1,'Dummy Table'!A18:B22,2,FALSE)</f>
         <v>Netherlands</v>
       </c>
-      <c r="Q21" s="253"/>
-      <c r="R21" s="253"/>
-      <c r="S21" s="253"/>
+      <c r="Q21" s="259"/>
+      <c r="R21" s="259"/>
+      <c r="S21" s="259"/>
       <c r="T21" s="60">
         <f>SUM(U21:W21)</f>
         <v>3</v>
@@ -5002,7 +5013,7 @@
       </c>
       <c r="CY21" s="14"/>
     </row>
-    <row r="22" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f>IF(F22&lt;&gt;"",1,0)</f>
         <v>1</v>
@@ -5031,7 +5042,7 @@
       <c r="I22" s="67"/>
       <c r="J22" s="67"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="270"/>
+      <c r="L22" s="221"/>
       <c r="M22" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5040,13 +5051,13 @@
       <c r="O22" s="125">
         <v>2</v>
       </c>
-      <c r="P22" s="274" t="str">
+      <c r="P22" s="237" t="str">
         <f>VLOOKUP(2,'Dummy Table'!A18:B22,2,FALSE)</f>
         <v>Ukraine</v>
       </c>
-      <c r="Q22" s="274"/>
-      <c r="R22" s="274"/>
-      <c r="S22" s="274"/>
+      <c r="Q22" s="237"/>
+      <c r="R22" s="237"/>
+      <c r="S22" s="237"/>
       <c r="T22" s="70">
         <f t="shared" ref="T22:T24" si="3">SUM(U22:W22)</f>
         <v>3</v>
@@ -5091,7 +5102,7 @@
       </c>
       <c r="CY22" s="14"/>
     </row>
-    <row r="23" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="71">
         <v>13</v>
@@ -5117,7 +5128,7 @@
       <c r="I23" s="76"/>
       <c r="J23" s="76"/>
       <c r="K23" s="76"/>
-      <c r="L23" s="248">
+      <c r="L23" s="254">
         <v>2</v>
       </c>
       <c r="M23" s="77" t="str">
@@ -5128,13 +5139,13 @@
       <c r="O23" s="126">
         <v>3</v>
       </c>
-      <c r="P23" s="252" t="str">
+      <c r="P23" s="258" t="str">
         <f>VLOOKUP(3,'Dummy Table'!A18:B22,2,FALSE)</f>
         <v>Austria</v>
       </c>
-      <c r="Q23" s="252"/>
-      <c r="R23" s="252"/>
-      <c r="S23" s="252"/>
+      <c r="Q23" s="258"/>
+      <c r="R23" s="258"/>
+      <c r="S23" s="258"/>
       <c r="T23" s="78">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -5179,7 +5190,7 @@
       </c>
       <c r="CY23" s="14"/>
     </row>
-    <row r="24" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="79">
         <v>14</v>
@@ -5205,7 +5216,7 @@
       <c r="I24" s="84"/>
       <c r="J24" s="84"/>
       <c r="K24" s="84"/>
-      <c r="L24" s="249"/>
+      <c r="L24" s="255"/>
       <c r="M24" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Turkey</v>
@@ -5214,13 +5225,13 @@
       <c r="O24" s="122">
         <v>4</v>
       </c>
-      <c r="P24" s="247" t="str">
+      <c r="P24" s="218" t="str">
         <f>VLOOKUP(4,'Dummy Table'!A18:B22,2,FALSE)</f>
         <v>North Macedonia</v>
       </c>
-      <c r="Q24" s="247"/>
-      <c r="R24" s="247"/>
-      <c r="S24" s="247"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="218"/>
       <c r="T24" s="55">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -5265,7 +5276,7 @@
       </c>
       <c r="CY24" s="14"/>
     </row>
-    <row r="25" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="79">
         <v>15</v>
@@ -5291,19 +5302,19 @@
       <c r="I25" s="84"/>
       <c r="J25" s="84"/>
       <c r="K25" s="84"/>
-      <c r="L25" s="249"/>
+      <c r="L25" s="255"/>
       <c r="M25" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Italy</v>
       </c>
       <c r="N25" s="31"/>
-      <c r="O25" s="242" t="s">
+      <c r="O25" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="P25" s="243"/>
-      <c r="Q25" s="243"/>
-      <c r="R25" s="243"/>
-      <c r="S25" s="243"/>
+      <c r="P25" s="215"/>
+      <c r="Q25" s="215"/>
+      <c r="R25" s="215"/>
+      <c r="S25" s="215"/>
       <c r="T25" s="35" t="s">
         <v>37</v>
       </c>
@@ -5338,7 +5349,7 @@
       </c>
       <c r="CY25" s="14"/>
     </row>
-    <row r="26" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="79">
         <v>16</v>
@@ -5364,7 +5375,7 @@
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
       <c r="K26" s="84"/>
-      <c r="L26" s="249"/>
+      <c r="L26" s="255"/>
       <c r="M26" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Ukraine</v>
@@ -5373,13 +5384,13 @@
       <c r="O26" s="127">
         <v>1</v>
       </c>
-      <c r="P26" s="277" t="str">
+      <c r="P26" s="233" t="str">
         <f>VLOOKUP(1,'Dummy Table'!A25:B29,2,FALSE)</f>
         <v>England</v>
       </c>
-      <c r="Q26" s="277"/>
-      <c r="R26" s="277"/>
-      <c r="S26" s="277"/>
+      <c r="Q26" s="233"/>
+      <c r="R26" s="233"/>
+      <c r="S26" s="233"/>
       <c r="T26" s="86">
         <f>SUM(U26:W26)</f>
         <v>3</v>
@@ -5424,7 +5435,7 @@
       </c>
       <c r="CY26" s="14"/>
     </row>
-    <row r="27" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="79">
         <v>17</v>
@@ -5450,7 +5461,7 @@
       <c r="I27" s="84"/>
       <c r="J27" s="84"/>
       <c r="K27" s="84"/>
-      <c r="L27" s="249"/>
+      <c r="L27" s="255"/>
       <c r="M27" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Belgium</v>
@@ -5459,13 +5470,13 @@
       <c r="O27" s="127">
         <v>2</v>
       </c>
-      <c r="P27" s="275" t="str">
+      <c r="P27" s="231" t="str">
         <f>VLOOKUP(2,'Dummy Table'!A25:B29,2,FALSE)</f>
         <v>Croatia</v>
       </c>
-      <c r="Q27" s="275"/>
-      <c r="R27" s="275"/>
-      <c r="S27" s="275"/>
+      <c r="Q27" s="231"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="231"/>
       <c r="T27" s="88">
         <f t="shared" ref="T27:T29" si="4">SUM(U27:W27)</f>
         <v>3</v>
@@ -5510,7 +5521,7 @@
       </c>
       <c r="CY27" s="14"/>
     </row>
-    <row r="28" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="79">
         <v>18</v>
@@ -5536,7 +5547,7 @@
       <c r="I28" s="84"/>
       <c r="J28" s="84"/>
       <c r="K28" s="84"/>
-      <c r="L28" s="249"/>
+      <c r="L28" s="255"/>
       <c r="M28" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Netherlands</v>
@@ -5545,13 +5556,13 @@
       <c r="O28" s="128">
         <v>3</v>
       </c>
-      <c r="P28" s="276" t="str">
+      <c r="P28" s="232" t="str">
         <f>VLOOKUP(3,'Dummy Table'!A25:B29,2,FALSE)</f>
         <v>Czech Republic</v>
       </c>
-      <c r="Q28" s="276"/>
-      <c r="R28" s="276"/>
-      <c r="S28" s="276"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
       <c r="T28" s="89">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -5596,7 +5607,7 @@
       </c>
       <c r="CY28" s="14"/>
     </row>
-    <row r="29" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="79">
         <v>19</v>
@@ -5622,7 +5633,7 @@
       <c r="I29" s="84"/>
       <c r="J29" s="84"/>
       <c r="K29" s="84"/>
-      <c r="L29" s="249"/>
+      <c r="L29" s="255"/>
       <c r="M29" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Sweden</v>
@@ -5631,13 +5642,13 @@
       <c r="O29" s="122">
         <v>4</v>
       </c>
-      <c r="P29" s="247" t="str">
+      <c r="P29" s="218" t="str">
         <f>VLOOKUP(4,'Dummy Table'!A25:B29,2,FALSE)</f>
         <v>Scotland</v>
       </c>
-      <c r="Q29" s="247"/>
-      <c r="R29" s="247"/>
-      <c r="S29" s="247"/>
+      <c r="Q29" s="218"/>
+      <c r="R29" s="218"/>
+      <c r="S29" s="218"/>
       <c r="T29" s="55">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -5682,7 +5693,7 @@
       </c>
       <c r="CY29" s="14"/>
     </row>
-    <row r="30" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="79">
         <v>20</v>
@@ -5708,19 +5719,19 @@
       <c r="I30" s="84"/>
       <c r="J30" s="84"/>
       <c r="K30" s="84"/>
-      <c r="L30" s="249"/>
+      <c r="L30" s="255"/>
       <c r="M30" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Croatia</v>
       </c>
       <c r="N30" s="31"/>
-      <c r="O30" s="242" t="s">
+      <c r="O30" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="P30" s="243"/>
-      <c r="Q30" s="243"/>
-      <c r="R30" s="243"/>
-      <c r="S30" s="243"/>
+      <c r="P30" s="215"/>
+      <c r="Q30" s="215"/>
+      <c r="R30" s="215"/>
+      <c r="S30" s="215"/>
       <c r="T30" s="35" t="s">
         <v>37</v>
       </c>
@@ -5755,7 +5766,7 @@
       </c>
       <c r="CY30" s="14"/>
     </row>
-    <row r="31" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="79">
         <v>21</v>
@@ -5781,7 +5792,7 @@
       <c r="I31" s="84"/>
       <c r="J31" s="84"/>
       <c r="K31" s="84"/>
-      <c r="L31" s="249"/>
+      <c r="L31" s="255"/>
       <c r="M31" s="85" t="str">
         <f t="shared" si="0"/>
         <v>England</v>
@@ -5790,13 +5801,13 @@
       <c r="O31" s="129">
         <v>1</v>
       </c>
-      <c r="P31" s="286" t="str">
+      <c r="P31" s="216" t="str">
         <f>VLOOKUP(1,'Dummy Table'!A31:B35,2,FALSE)</f>
         <v>Spain</v>
       </c>
-      <c r="Q31" s="286"/>
-      <c r="R31" s="286"/>
-      <c r="S31" s="286"/>
+      <c r="Q31" s="216"/>
+      <c r="R31" s="216"/>
+      <c r="S31" s="216"/>
       <c r="T31" s="90">
         <f>SUM(U31:W31)</f>
         <v>3</v>
@@ -5841,7 +5852,7 @@
       </c>
       <c r="CY31" s="14"/>
     </row>
-    <row r="32" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="79">
         <v>22</v>
@@ -5867,7 +5878,7 @@
       <c r="I32" s="84"/>
       <c r="J32" s="84"/>
       <c r="K32" s="84"/>
-      <c r="L32" s="249"/>
+      <c r="L32" s="255"/>
       <c r="M32" s="85" t="str">
         <f t="shared" si="0"/>
         <v>France</v>
@@ -5876,13 +5887,13 @@
       <c r="O32" s="129">
         <v>2</v>
       </c>
-      <c r="P32" s="251" t="str">
+      <c r="P32" s="257" t="str">
         <f>VLOOKUP(2,'Dummy Table'!A31:B35,2,FALSE)</f>
         <v>Poland</v>
       </c>
-      <c r="Q32" s="251"/>
-      <c r="R32" s="251"/>
-      <c r="S32" s="251"/>
+      <c r="Q32" s="257"/>
+      <c r="R32" s="257"/>
+      <c r="S32" s="257"/>
       <c r="T32" s="92">
         <f t="shared" ref="T32:T34" si="5">SUM(U32:W32)</f>
         <v>3</v>
@@ -5927,7 +5938,7 @@
       </c>
       <c r="CY32" s="14"/>
     </row>
-    <row r="33" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="79">
         <v>23</v>
@@ -5953,7 +5964,7 @@
       <c r="I33" s="84"/>
       <c r="J33" s="84"/>
       <c r="K33" s="84"/>
-      <c r="L33" s="249"/>
+      <c r="L33" s="255"/>
       <c r="M33" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Germany</v>
@@ -5962,13 +5973,13 @@
       <c r="O33" s="130">
         <v>3</v>
       </c>
-      <c r="P33" s="287" t="str">
+      <c r="P33" s="217" t="str">
         <f>VLOOKUP(3,'Dummy Table'!A31:B35,2,FALSE)</f>
         <v>Sweden</v>
       </c>
-      <c r="Q33" s="287"/>
-      <c r="R33" s="287"/>
-      <c r="S33" s="287"/>
+      <c r="Q33" s="217"/>
+      <c r="R33" s="217"/>
+      <c r="S33" s="217"/>
       <c r="T33" s="93">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -6013,7 +6024,7 @@
       </c>
       <c r="CY33" s="14"/>
     </row>
-    <row r="34" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <f>IF(F34&lt;&gt;"",2,0)</f>
         <v>2</v>
@@ -6042,7 +6053,7 @@
       <c r="I34" s="99"/>
       <c r="J34" s="99"/>
       <c r="K34" s="100"/>
-      <c r="L34" s="250"/>
+      <c r="L34" s="256"/>
       <c r="M34" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6051,13 +6062,13 @@
       <c r="O34" s="122">
         <v>4</v>
       </c>
-      <c r="P34" s="247" t="str">
+      <c r="P34" s="218" t="str">
         <f>VLOOKUP(4,'Dummy Table'!A31:B35,2,FALSE)</f>
         <v>Slovakia</v>
       </c>
-      <c r="Q34" s="247"/>
-      <c r="R34" s="247"/>
-      <c r="S34" s="247"/>
+      <c r="Q34" s="218"/>
+      <c r="R34" s="218"/>
+      <c r="S34" s="218"/>
       <c r="T34" s="55">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -6099,7 +6110,7 @@
       <c r="AH34" s="16"/>
       <c r="CY34" s="14"/>
     </row>
-    <row r="35" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="206">
         <v>25</v>
@@ -6125,7 +6136,7 @@
       <c r="I35" s="212"/>
       <c r="J35" s="212"/>
       <c r="K35" s="212"/>
-      <c r="L35" s="288">
+      <c r="L35" s="219">
         <v>3</v>
       </c>
       <c r="M35" s="102" t="str">
@@ -6133,13 +6144,13 @@
         <v>Turkey</v>
       </c>
       <c r="N35" s="31"/>
-      <c r="O35" s="242" t="s">
+      <c r="O35" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="P35" s="243"/>
-      <c r="Q35" s="243"/>
-      <c r="R35" s="243"/>
-      <c r="S35" s="243"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="215"/>
+      <c r="R35" s="215"/>
+      <c r="S35" s="215"/>
       <c r="T35" s="35" t="s">
         <v>37</v>
       </c>
@@ -6171,7 +6182,7 @@
       <c r="AH35" s="16"/>
       <c r="CY35" s="14"/>
     </row>
-    <row r="36" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="46">
         <v>26</v>
@@ -6197,7 +6208,7 @@
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
       <c r="K36" s="51"/>
-      <c r="L36" s="269"/>
+      <c r="L36" s="220"/>
       <c r="M36" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Italy</v>
@@ -6206,13 +6217,13 @@
       <c r="O36" s="131">
         <v>1</v>
       </c>
-      <c r="P36" s="289" t="str">
+      <c r="P36" s="222" t="str">
         <f>VLOOKUP(1,'Dummy Table'!A37:B41,2,FALSE)</f>
         <v>France</v>
       </c>
-      <c r="Q36" s="289"/>
-      <c r="R36" s="289"/>
-      <c r="S36" s="289"/>
+      <c r="Q36" s="222"/>
+      <c r="R36" s="222"/>
+      <c r="S36" s="222"/>
       <c r="T36" s="103">
         <f>SUM(U36:W36)</f>
         <v>3</v>
@@ -6254,7 +6265,7 @@
       <c r="AH36" s="16"/>
       <c r="CY36" s="14"/>
     </row>
-    <row r="37" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="46">
         <v>27</v>
@@ -6280,7 +6291,7 @@
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
       <c r="K37" s="51"/>
-      <c r="L37" s="269"/>
+      <c r="L37" s="220"/>
       <c r="M37" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Netherlands</v>
@@ -6289,13 +6300,13 @@
       <c r="O37" s="131">
         <v>2</v>
       </c>
-      <c r="P37" s="278" t="str">
+      <c r="P37" s="229" t="str">
         <f>VLOOKUP(2,'Dummy Table'!A37:B41,2,FALSE)</f>
         <v>Germany</v>
       </c>
-      <c r="Q37" s="278"/>
-      <c r="R37" s="278"/>
-      <c r="S37" s="278"/>
+      <c r="Q37" s="229"/>
+      <c r="R37" s="229"/>
+      <c r="S37" s="229"/>
       <c r="T37" s="105">
         <f t="shared" ref="T37:T39" si="6">SUM(U37:W37)</f>
         <v>3</v>
@@ -6337,7 +6348,7 @@
       <c r="AH37" s="16"/>
       <c r="CY37" s="14"/>
     </row>
-    <row r="38" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="46">
         <v>28</v>
@@ -6363,7 +6374,7 @@
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
-      <c r="L38" s="269"/>
+      <c r="L38" s="220"/>
       <c r="M38" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Ukraine</v>
@@ -6372,13 +6383,13 @@
       <c r="O38" s="132">
         <v>3</v>
       </c>
-      <c r="P38" s="279" t="str">
+      <c r="P38" s="230" t="str">
         <f>VLOOKUP(3,'Dummy Table'!A37:B41,2,FALSE)</f>
         <v>Portugal</v>
       </c>
-      <c r="Q38" s="279"/>
-      <c r="R38" s="279"/>
-      <c r="S38" s="279"/>
+      <c r="Q38" s="230"/>
+      <c r="R38" s="230"/>
+      <c r="S38" s="230"/>
       <c r="T38" s="106">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -6420,7 +6431,7 @@
       <c r="AH38" s="16"/>
       <c r="CY38" s="14"/>
     </row>
-    <row r="39" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="46">
         <v>29</v>
@@ -6446,7 +6457,7 @@
       <c r="I39" s="51"/>
       <c r="J39" s="51"/>
       <c r="K39" s="51"/>
-      <c r="L39" s="269"/>
+      <c r="L39" s="220"/>
       <c r="M39" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Russia</v>
@@ -6455,13 +6466,13 @@
       <c r="O39" s="122">
         <v>4</v>
       </c>
-      <c r="P39" s="247" t="str">
+      <c r="P39" s="218" t="str">
         <f>VLOOKUP(4,'Dummy Table'!A37:B41,2,FALSE)</f>
         <v>Hungary</v>
       </c>
-      <c r="Q39" s="247"/>
-      <c r="R39" s="247"/>
-      <c r="S39" s="247"/>
+      <c r="Q39" s="218"/>
+      <c r="R39" s="218"/>
+      <c r="S39" s="218"/>
       <c r="T39" s="55">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -6503,7 +6514,7 @@
       <c r="AH39" s="16"/>
       <c r="CY39" s="14"/>
     </row>
-    <row r="40" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="46">
         <v>30</v>
@@ -6529,7 +6540,7 @@
       <c r="I40" s="51"/>
       <c r="J40" s="51"/>
       <c r="K40" s="51"/>
-      <c r="L40" s="269"/>
+      <c r="L40" s="220"/>
       <c r="M40" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Belgium</v>
@@ -6555,7 +6566,7 @@
       <c r="AH40" s="16"/>
       <c r="CY40" s="14"/>
     </row>
-    <row r="41" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="46">
         <v>31</v>
@@ -6581,7 +6592,7 @@
       <c r="I41" s="51"/>
       <c r="J41" s="51"/>
       <c r="K41" s="51"/>
-      <c r="L41" s="269"/>
+      <c r="L41" s="220"/>
       <c r="M41" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Croatia</v>
@@ -6609,7 +6620,7 @@
       <c r="AH41" s="16"/>
       <c r="CY41" s="14"/>
     </row>
-    <row r="42" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="46">
         <v>32</v>
@@ -6635,7 +6646,7 @@
       <c r="I42" s="51"/>
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
-      <c r="L42" s="269"/>
+      <c r="L42" s="220"/>
       <c r="M42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>England</v>
@@ -6681,7 +6692,7 @@
       <c r="AH42" s="16"/>
       <c r="CY42" s="14"/>
     </row>
-    <row r="43" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="46">
         <v>33</v>
@@ -6707,7 +6718,7 @@
       <c r="I43" s="51"/>
       <c r="J43" s="51"/>
       <c r="K43" s="51"/>
-      <c r="L43" s="269"/>
+      <c r="L43" s="220"/>
       <c r="M43" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6716,13 +6727,13 @@
       <c r="O43" s="139">
         <v>1</v>
       </c>
-      <c r="P43" s="280" t="str">
+      <c r="P43" s="223" t="str">
         <f>INDEX('Dummy Table'!DH3:DH8,MATCH(Matches!O43,'Dummy Table'!DU3:DU8,0),0)</f>
         <v>Sweden</v>
       </c>
-      <c r="Q43" s="280"/>
-      <c r="R43" s="280"/>
-      <c r="S43" s="280"/>
+      <c r="Q43" s="223"/>
+      <c r="R43" s="223"/>
+      <c r="S43" s="223"/>
       <c r="T43" s="111">
         <f>VLOOKUP(P43,P11:AB39,5,FALSE)</f>
         <v>3</v>
@@ -6767,7 +6778,7 @@
       <c r="AH43" s="16"/>
       <c r="CY43" s="14"/>
     </row>
-    <row r="44" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="46">
         <v>34</v>
@@ -6793,7 +6804,7 @@
       <c r="I44" s="51"/>
       <c r="J44" s="51"/>
       <c r="K44" s="51"/>
-      <c r="L44" s="269"/>
+      <c r="L44" s="220"/>
       <c r="M44" s="52" t="str">
         <f t="shared" si="0"/>
         <v>Spain</v>
@@ -6802,13 +6813,13 @@
       <c r="O44" s="139">
         <v>2</v>
       </c>
-      <c r="P44" s="280" t="str">
+      <c r="P44" s="223" t="str">
         <f>INDEX('Dummy Table'!DH3:DH8,MATCH(Matches!O44,'Dummy Table'!DU3:DU8,0),0)</f>
         <v>Portugal</v>
       </c>
-      <c r="Q44" s="280"/>
-      <c r="R44" s="280"/>
-      <c r="S44" s="280"/>
+      <c r="Q44" s="223"/>
+      <c r="R44" s="223"/>
+      <c r="S44" s="223"/>
       <c r="T44" s="111">
         <f>VLOOKUP(P44,P11:AB39,5,FALSE)</f>
         <v>3</v>
@@ -6853,7 +6864,7 @@
       <c r="AH44" s="16"/>
       <c r="CY44" s="14"/>
     </row>
-    <row r="45" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="46">
         <v>35</v>
@@ -6879,7 +6890,7 @@
       <c r="I45" s="51"/>
       <c r="J45" s="51"/>
       <c r="K45" s="51"/>
-      <c r="L45" s="269"/>
+      <c r="L45" s="220"/>
       <c r="M45" s="52" t="str">
         <f t="shared" si="0"/>
         <v>France</v>
@@ -6888,13 +6899,13 @@
       <c r="O45" s="139">
         <v>3</v>
       </c>
-      <c r="P45" s="280" t="str">
+      <c r="P45" s="223" t="str">
         <f>INDEX('Dummy Table'!DH3:DH8,MATCH(Matches!O45,'Dummy Table'!DU3:DU8,0),0)</f>
         <v>Denmark</v>
       </c>
-      <c r="Q45" s="280"/>
-      <c r="R45" s="280"/>
-      <c r="S45" s="280"/>
+      <c r="Q45" s="223"/>
+      <c r="R45" s="223"/>
+      <c r="S45" s="223"/>
       <c r="T45" s="111">
         <f>VLOOKUP(P45,P11:AB39,5,FALSE)</f>
         <v>3</v>
@@ -6939,7 +6950,7 @@
       <c r="AH45" s="16"/>
       <c r="CY45" s="14"/>
     </row>
-    <row r="46" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <f>IF(F46&lt;&gt;"",3,0)</f>
         <v>3</v>
@@ -6968,7 +6979,7 @@
       <c r="I46" s="67"/>
       <c r="J46" s="67"/>
       <c r="K46" s="67"/>
-      <c r="L46" s="270"/>
+      <c r="L46" s="221"/>
       <c r="M46" s="69" t="str">
         <f>IF(F46&lt;&gt;"",IF(F46&gt;G46,E46,IF(F46&lt;G46,H46,"")),"")</f>
         <v>Germany</v>
@@ -6977,13 +6988,13 @@
       <c r="O46" s="139">
         <v>4</v>
       </c>
-      <c r="P46" s="280" t="str">
+      <c r="P46" s="223" t="str">
         <f>INDEX('Dummy Table'!DH3:DH8,MATCH(Matches!O46,'Dummy Table'!DU3:DU8,0),0)</f>
         <v>Austria</v>
       </c>
-      <c r="Q46" s="280"/>
-      <c r="R46" s="280"/>
-      <c r="S46" s="280"/>
+      <c r="Q46" s="223"/>
+      <c r="R46" s="223"/>
+      <c r="S46" s="223"/>
       <c r="T46" s="111">
         <f>VLOOKUP(P46,P11:AB39,5,FALSE)</f>
         <v>3</v>
@@ -7028,19 +7039,19 @@
       <c r="AH46" s="16"/>
       <c r="CY46" s="14"/>
     </row>
-    <row r="47" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="N47" s="31"/>
       <c r="O47" s="141">
         <v>5</v>
       </c>
-      <c r="P47" s="281" t="str">
+      <c r="P47" s="224" t="str">
         <f>INDEX('Dummy Table'!DH3:DH8,MATCH(Matches!O47,'Dummy Table'!DU3:DU8,0),0)</f>
         <v>Switzerland</v>
       </c>
-      <c r="Q47" s="281"/>
-      <c r="R47" s="281"/>
-      <c r="S47" s="281"/>
+      <c r="Q47" s="224"/>
+      <c r="R47" s="224"/>
+      <c r="S47" s="224"/>
       <c r="T47" s="112">
         <f>VLOOKUP(P47,P11:AB39,5,FALSE)</f>
         <v>3</v>
@@ -7085,33 +7096,33 @@
       <c r="AH47" s="16"/>
       <c r="CY47" s="14"/>
     </row>
-    <row r="48" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:103" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
-      <c r="B48" s="231" t="s">
+      <c r="B48" s="265" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="232"/>
-      <c r="D48" s="232"/>
-      <c r="E48" s="232"/>
-      <c r="F48" s="232"/>
-      <c r="G48" s="232"/>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="232"/>
-      <c r="K48" s="232"/>
-      <c r="L48" s="232"/>
-      <c r="M48" s="233"/>
+      <c r="C48" s="266"/>
+      <c r="D48" s="266"/>
+      <c r="E48" s="266"/>
+      <c r="F48" s="266"/>
+      <c r="G48" s="266"/>
+      <c r="H48" s="266"/>
+      <c r="I48" s="266"/>
+      <c r="J48" s="266"/>
+      <c r="K48" s="266"/>
+      <c r="L48" s="266"/>
+      <c r="M48" s="267"/>
       <c r="N48" s="31"/>
       <c r="O48" s="143">
         <v>6</v>
       </c>
-      <c r="P48" s="282" t="str">
+      <c r="P48" s="225" t="str">
         <f>INDEX('Dummy Table'!DH3:DH8,MATCH(Matches!O48,'Dummy Table'!DU3:DU8,0),0)</f>
         <v>Czech Republic</v>
       </c>
-      <c r="Q48" s="282"/>
-      <c r="R48" s="282"/>
-      <c r="S48" s="282"/>
+      <c r="Q48" s="225"/>
+      <c r="R48" s="225"/>
+      <c r="S48" s="225"/>
       <c r="T48" s="144">
         <f>VLOOKUP(P48,P11:AB39,5,FALSE)</f>
         <v>3</v>
@@ -7156,20 +7167,22 @@
       <c r="AH48" s="16"/>
       <c r="CV48" s="14"/>
     </row>
-    <row r="49" spans="1:96" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:96" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
-      <c r="B49" s="217"/>
-      <c r="C49" s="218"/>
-      <c r="D49" s="218"/>
-      <c r="E49" s="218"/>
-      <c r="F49" s="218"/>
-      <c r="G49" s="218"/>
-      <c r="H49" s="218"/>
-      <c r="I49" s="218"/>
-      <c r="J49" s="218"/>
-      <c r="K49" s="218"/>
-      <c r="L49" s="218"/>
-      <c r="M49" s="219"/>
+      <c r="B49" s="268" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="269"/>
+      <c r="D49" s="269"/>
+      <c r="E49" s="269"/>
+      <c r="F49" s="269"/>
+      <c r="G49" s="269"/>
+      <c r="H49" s="269"/>
+      <c r="I49" s="269"/>
+      <c r="J49" s="269"/>
+      <c r="K49" s="269"/>
+      <c r="L49" s="269"/>
+      <c r="M49" s="270"/>
       <c r="N49" s="31"/>
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
@@ -7191,39 +7204,41 @@
       <c r="AH49" s="16"/>
       <c r="CR49" s="14"/>
     </row>
-    <row r="50" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
-      <c r="B50" s="234"/>
-      <c r="C50" s="235"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="235"/>
-      <c r="F50" s="235"/>
-      <c r="G50" s="235"/>
-      <c r="H50" s="235"/>
-      <c r="I50" s="235"/>
-      <c r="J50" s="235"/>
-      <c r="K50" s="235"/>
-      <c r="L50" s="235"/>
-      <c r="M50" s="236"/>
+      <c r="B50" s="271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="272"/>
+      <c r="D50" s="272"/>
+      <c r="E50" s="272"/>
+      <c r="F50" s="272"/>
+      <c r="G50" s="272"/>
+      <c r="H50" s="272"/>
+      <c r="I50" s="272"/>
+      <c r="J50" s="272"/>
+      <c r="K50" s="272"/>
+      <c r="L50" s="272"/>
+      <c r="M50" s="273"/>
       <c r="N50" s="31"/>
-      <c r="O50" s="283" t="s">
+      <c r="O50" s="226" t="s">
         <v>122</v>
       </c>
-      <c r="P50" s="284"/>
-      <c r="Q50" s="284"/>
-      <c r="R50" s="284"/>
-      <c r="S50" s="284"/>
-      <c r="T50" s="284"/>
-      <c r="U50" s="284"/>
-      <c r="V50" s="284"/>
-      <c r="W50" s="284"/>
-      <c r="X50" s="284"/>
-      <c r="Y50" s="284"/>
-      <c r="Z50" s="284"/>
-      <c r="AA50" s="284"/>
-      <c r="AB50" s="284"/>
-      <c r="AC50" s="284"/>
-      <c r="AD50" s="285"/>
+      <c r="P50" s="227"/>
+      <c r="Q50" s="227"/>
+      <c r="R50" s="227"/>
+      <c r="S50" s="227"/>
+      <c r="T50" s="227"/>
+      <c r="U50" s="227"/>
+      <c r="V50" s="227"/>
+      <c r="W50" s="227"/>
+      <c r="X50" s="227"/>
+      <c r="Y50" s="227"/>
+      <c r="Z50" s="227"/>
+      <c r="AA50" s="227"/>
+      <c r="AB50" s="227"/>
+      <c r="AC50" s="227"/>
+      <c r="AD50" s="228"/>
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="17"/>
@@ -7231,71 +7246,75 @@
       <c r="AI50" s="17"/>
       <c r="AJ50" s="17"/>
     </row>
-    <row r="51" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="234"/>
-      <c r="C51" s="235"/>
-      <c r="D51" s="235"/>
-      <c r="E51" s="235"/>
-      <c r="F51" s="235"/>
-      <c r="G51" s="235"/>
-      <c r="H51" s="235"/>
-      <c r="I51" s="235"/>
-      <c r="J51" s="235"/>
-      <c r="K51" s="235"/>
-      <c r="L51" s="235"/>
-      <c r="M51" s="236"/>
+    <row r="51" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="272"/>
+      <c r="D51" s="272"/>
+      <c r="E51" s="272"/>
+      <c r="F51" s="272"/>
+      <c r="G51" s="272"/>
+      <c r="H51" s="272"/>
+      <c r="I51" s="272"/>
+      <c r="J51" s="272"/>
+      <c r="K51" s="272"/>
+      <c r="L51" s="272"/>
+      <c r="M51" s="273"/>
       <c r="N51" s="31"/>
-      <c r="O51" s="239" t="s">
+      <c r="O51" s="248" t="s">
         <v>123</v>
       </c>
-      <c r="P51" s="240"/>
-      <c r="Q51" s="240"/>
-      <c r="R51" s="240"/>
-      <c r="S51" s="240"/>
-      <c r="T51" s="240"/>
-      <c r="U51" s="240"/>
-      <c r="V51" s="240"/>
-      <c r="W51" s="240"/>
-      <c r="X51" s="240"/>
-      <c r="Y51" s="240"/>
-      <c r="Z51" s="240"/>
-      <c r="AA51" s="240"/>
-      <c r="AB51" s="240"/>
-      <c r="AC51" s="240"/>
-      <c r="AD51" s="241"/>
+      <c r="P51" s="249"/>
+      <c r="Q51" s="249"/>
+      <c r="R51" s="249"/>
+      <c r="S51" s="249"/>
+      <c r="T51" s="249"/>
+      <c r="U51" s="249"/>
+      <c r="V51" s="249"/>
+      <c r="W51" s="249"/>
+      <c r="X51" s="249"/>
+      <c r="Y51" s="249"/>
+      <c r="Z51" s="249"/>
+      <c r="AA51" s="249"/>
+      <c r="AB51" s="249"/>
+      <c r="AC51" s="249"/>
+      <c r="AD51" s="250"/>
     </row>
-    <row r="52" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="214"/>
-      <c r="C52" s="215"/>
-      <c r="D52" s="215"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="215"/>
-      <c r="G52" s="215"/>
-      <c r="H52" s="215"/>
-      <c r="I52" s="215"/>
-      <c r="J52" s="215"/>
-      <c r="K52" s="215"/>
-      <c r="L52" s="215"/>
-      <c r="M52" s="216"/>
+    <row r="52" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="260" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="261"/>
+      <c r="D52" s="261"/>
+      <c r="E52" s="261"/>
+      <c r="F52" s="261"/>
+      <c r="G52" s="261"/>
+      <c r="H52" s="261"/>
+      <c r="I52" s="261"/>
+      <c r="J52" s="261"/>
+      <c r="K52" s="261"/>
+      <c r="L52" s="261"/>
+      <c r="M52" s="262"/>
       <c r="N52" s="21"/>
-      <c r="O52" s="239"/>
-      <c r="P52" s="240"/>
-      <c r="Q52" s="240"/>
-      <c r="R52" s="240"/>
-      <c r="S52" s="240"/>
-      <c r="T52" s="240"/>
-      <c r="U52" s="240"/>
-      <c r="V52" s="240"/>
-      <c r="W52" s="240"/>
-      <c r="X52" s="240"/>
-      <c r="Y52" s="240"/>
-      <c r="Z52" s="240"/>
-      <c r="AA52" s="240"/>
-      <c r="AB52" s="240"/>
-      <c r="AC52" s="240"/>
-      <c r="AD52" s="241"/>
+      <c r="O52" s="248"/>
+      <c r="P52" s="249"/>
+      <c r="Q52" s="249"/>
+      <c r="R52" s="249"/>
+      <c r="S52" s="249"/>
+      <c r="T52" s="249"/>
+      <c r="U52" s="249"/>
+      <c r="V52" s="249"/>
+      <c r="W52" s="249"/>
+      <c r="X52" s="249"/>
+      <c r="Y52" s="249"/>
+      <c r="Z52" s="249"/>
+      <c r="AA52" s="249"/>
+      <c r="AB52" s="249"/>
+      <c r="AC52" s="249"/>
+      <c r="AD52" s="250"/>
     </row>
-    <row r="53" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N53" s="21"/>
       <c r="O53" s="170">
         <v>1</v>
@@ -7318,21 +7337,21 @@
       <c r="AC53" s="115"/>
       <c r="AD53" s="117"/>
     </row>
-    <row r="54" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="231" t="s">
+    <row r="54" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="265" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="232"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="232"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="232"/>
-      <c r="H54" s="232"/>
-      <c r="I54" s="232"/>
-      <c r="J54" s="232"/>
-      <c r="K54" s="232"/>
-      <c r="L54" s="232"/>
-      <c r="M54" s="233"/>
+      <c r="C54" s="266"/>
+      <c r="D54" s="266"/>
+      <c r="E54" s="266"/>
+      <c r="F54" s="266"/>
+      <c r="G54" s="266"/>
+      <c r="H54" s="266"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="266"/>
+      <c r="K54" s="266"/>
+      <c r="L54" s="266"/>
+      <c r="M54" s="267"/>
       <c r="N54" s="21"/>
       <c r="O54" s="170">
         <v>2</v>
@@ -7355,20 +7374,22 @@
       <c r="AC54" s="171"/>
       <c r="AD54" s="173"/>
     </row>
-    <row r="55" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
-      <c r="B55" s="217"/>
-      <c r="C55" s="218"/>
-      <c r="D55" s="218"/>
-      <c r="E55" s="218"/>
-      <c r="F55" s="218"/>
-      <c r="G55" s="218"/>
-      <c r="H55" s="218"/>
-      <c r="I55" s="218"/>
-      <c r="J55" s="218"/>
-      <c r="K55" s="218"/>
-      <c r="L55" s="218"/>
-      <c r="M55" s="219"/>
+      <c r="B55" s="268" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="269"/>
+      <c r="D55" s="269"/>
+      <c r="E55" s="269"/>
+      <c r="F55" s="269"/>
+      <c r="G55" s="269"/>
+      <c r="H55" s="269"/>
+      <c r="I55" s="269"/>
+      <c r="J55" s="269"/>
+      <c r="K55" s="269"/>
+      <c r="L55" s="269"/>
+      <c r="M55" s="270"/>
       <c r="N55" s="21"/>
       <c r="O55" s="170">
         <v>3</v>
@@ -7391,73 +7412,75 @@
       <c r="AC55" s="171"/>
       <c r="AD55" s="173"/>
     </row>
-    <row r="56" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="214"/>
-      <c r="C56" s="215"/>
-      <c r="D56" s="215"/>
-      <c r="E56" s="215"/>
-      <c r="F56" s="215"/>
-      <c r="G56" s="215"/>
-      <c r="H56" s="215"/>
-      <c r="I56" s="215"/>
-      <c r="J56" s="215"/>
-      <c r="K56" s="215"/>
-      <c r="L56" s="215"/>
-      <c r="M56" s="216"/>
+    <row r="56" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="260" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="261"/>
+      <c r="D56" s="261"/>
+      <c r="E56" s="261"/>
+      <c r="F56" s="261"/>
+      <c r="G56" s="261"/>
+      <c r="H56" s="261"/>
+      <c r="I56" s="261"/>
+      <c r="J56" s="261"/>
+      <c r="K56" s="261"/>
+      <c r="L56" s="261"/>
+      <c r="M56" s="262"/>
       <c r="N56" s="21"/>
-      <c r="O56" s="239" t="s">
+      <c r="O56" s="248" t="s">
         <v>118</v>
       </c>
-      <c r="P56" s="240"/>
-      <c r="Q56" s="240"/>
-      <c r="R56" s="240"/>
-      <c r="S56" s="240"/>
-      <c r="T56" s="240"/>
-      <c r="U56" s="240"/>
-      <c r="V56" s="240"/>
-      <c r="W56" s="240"/>
-      <c r="X56" s="240"/>
-      <c r="Y56" s="240"/>
-      <c r="Z56" s="240"/>
-      <c r="AA56" s="240"/>
-      <c r="AB56" s="240"/>
-      <c r="AC56" s="240"/>
-      <c r="AD56" s="241"/>
+      <c r="P56" s="249"/>
+      <c r="Q56" s="249"/>
+      <c r="R56" s="249"/>
+      <c r="S56" s="249"/>
+      <c r="T56" s="249"/>
+      <c r="U56" s="249"/>
+      <c r="V56" s="249"/>
+      <c r="W56" s="249"/>
+      <c r="X56" s="249"/>
+      <c r="Y56" s="249"/>
+      <c r="Z56" s="249"/>
+      <c r="AA56" s="249"/>
+      <c r="AB56" s="249"/>
+      <c r="AC56" s="249"/>
+      <c r="AD56" s="250"/>
     </row>
-    <row r="57" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N57" s="21"/>
-      <c r="O57" s="239"/>
-      <c r="P57" s="240"/>
-      <c r="Q57" s="240"/>
-      <c r="R57" s="240"/>
-      <c r="S57" s="240"/>
-      <c r="T57" s="240"/>
-      <c r="U57" s="240"/>
-      <c r="V57" s="240"/>
-      <c r="W57" s="240"/>
-      <c r="X57" s="240"/>
-      <c r="Y57" s="240"/>
-      <c r="Z57" s="240"/>
-      <c r="AA57" s="240"/>
-      <c r="AB57" s="240"/>
-      <c r="AC57" s="240"/>
-      <c r="AD57" s="241"/>
+      <c r="O57" s="248"/>
+      <c r="P57" s="249"/>
+      <c r="Q57" s="249"/>
+      <c r="R57" s="249"/>
+      <c r="S57" s="249"/>
+      <c r="T57" s="249"/>
+      <c r="U57" s="249"/>
+      <c r="V57" s="249"/>
+      <c r="W57" s="249"/>
+      <c r="X57" s="249"/>
+      <c r="Y57" s="249"/>
+      <c r="Z57" s="249"/>
+      <c r="AA57" s="249"/>
+      <c r="AB57" s="249"/>
+      <c r="AC57" s="249"/>
+      <c r="AD57" s="250"/>
     </row>
-    <row r="58" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="254" t="s">
+    <row r="58" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="287" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="255"/>
-      <c r="D58" s="255"/>
-      <c r="E58" s="255"/>
-      <c r="F58" s="255"/>
-      <c r="G58" s="255"/>
-      <c r="H58" s="255"/>
-      <c r="I58" s="255"/>
-      <c r="J58" s="255"/>
-      <c r="K58" s="255"/>
-      <c r="L58" s="255"/>
-      <c r="M58" s="256"/>
+      <c r="C58" s="288"/>
+      <c r="D58" s="288"/>
+      <c r="E58" s="288"/>
+      <c r="F58" s="288"/>
+      <c r="G58" s="288"/>
+      <c r="H58" s="288"/>
+      <c r="I58" s="288"/>
+      <c r="J58" s="288"/>
+      <c r="K58" s="288"/>
+      <c r="L58" s="288"/>
+      <c r="M58" s="289"/>
       <c r="N58" s="21"/>
       <c r="O58" s="170">
         <v>4</v>
@@ -7480,20 +7503,22 @@
       <c r="AC58" s="171"/>
       <c r="AD58" s="173"/>
     </row>
-    <row r="59" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
-      <c r="B59" s="229"/>
-      <c r="C59" s="229"/>
-      <c r="D59" s="229"/>
-      <c r="E59" s="229"/>
-      <c r="F59" s="229"/>
-      <c r="G59" s="229"/>
-      <c r="H59" s="229"/>
-      <c r="I59" s="229"/>
-      <c r="J59" s="229"/>
-      <c r="K59" s="229"/>
-      <c r="L59" s="229"/>
-      <c r="M59" s="230"/>
+      <c r="B59" s="285" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="285"/>
+      <c r="D59" s="285"/>
+      <c r="E59" s="285"/>
+      <c r="F59" s="285"/>
+      <c r="G59" s="285"/>
+      <c r="H59" s="285"/>
+      <c r="I59" s="285"/>
+      <c r="J59" s="285"/>
+      <c r="K59" s="285"/>
+      <c r="L59" s="285"/>
+      <c r="M59" s="286"/>
       <c r="N59" s="21"/>
       <c r="O59" s="170">
         <v>5</v>
@@ -7516,7 +7541,7 @@
       <c r="AC59" s="171"/>
       <c r="AD59" s="173"/>
     </row>
-    <row r="60" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N60" s="21"/>
       <c r="O60" s="170">
         <v>6</v>
@@ -7539,22 +7564,22 @@
       <c r="AC60" s="171"/>
       <c r="AD60" s="173"/>
     </row>
-    <row r="61" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
-      <c r="B61" s="226" t="s">
+      <c r="B61" s="282" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="227"/>
-      <c r="D61" s="227"/>
-      <c r="E61" s="227"/>
-      <c r="F61" s="227"/>
-      <c r="G61" s="227"/>
-      <c r="H61" s="227"/>
-      <c r="I61" s="227"/>
-      <c r="J61" s="227"/>
-      <c r="K61" s="227"/>
-      <c r="L61" s="227"/>
-      <c r="M61" s="228"/>
+      <c r="C61" s="283"/>
+      <c r="D61" s="283"/>
+      <c r="E61" s="283"/>
+      <c r="F61" s="283"/>
+      <c r="G61" s="283"/>
+      <c r="H61" s="283"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
+      <c r="K61" s="283"/>
+      <c r="L61" s="283"/>
+      <c r="M61" s="284"/>
       <c r="N61" s="21"/>
       <c r="O61" s="170">
         <v>7</v>
@@ -7577,7 +7602,7 @@
       <c r="AC61" s="171"/>
       <c r="AD61" s="173"/>
     </row>
-    <row r="62" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="176">
         <v>1</v>
@@ -7619,7 +7644,7 @@
       <c r="AC62" s="115"/>
       <c r="AD62" s="117"/>
     </row>
-    <row r="63" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="176">
         <v>2</v>
@@ -7640,26 +7665,26 @@
         <v>142</v>
       </c>
       <c r="N63" s="175"/>
-      <c r="O63" s="220" t="s">
+      <c r="O63" s="276" t="s">
         <v>136</v>
       </c>
-      <c r="P63" s="221"/>
-      <c r="Q63" s="221"/>
-      <c r="R63" s="221"/>
-      <c r="S63" s="221"/>
-      <c r="T63" s="221"/>
-      <c r="U63" s="221"/>
-      <c r="V63" s="221"/>
-      <c r="W63" s="221"/>
-      <c r="X63" s="221"/>
-      <c r="Y63" s="221"/>
-      <c r="Z63" s="221"/>
-      <c r="AA63" s="221"/>
-      <c r="AB63" s="221"/>
-      <c r="AC63" s="221"/>
-      <c r="AD63" s="222"/>
+      <c r="P63" s="277"/>
+      <c r="Q63" s="277"/>
+      <c r="R63" s="277"/>
+      <c r="S63" s="277"/>
+      <c r="T63" s="277"/>
+      <c r="U63" s="277"/>
+      <c r="V63" s="277"/>
+      <c r="W63" s="277"/>
+      <c r="X63" s="277"/>
+      <c r="Y63" s="277"/>
+      <c r="Z63" s="277"/>
+      <c r="AA63" s="277"/>
+      <c r="AB63" s="277"/>
+      <c r="AC63" s="277"/>
+      <c r="AD63" s="278"/>
     </row>
-    <row r="64" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:96" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="178">
         <v>3</v>
@@ -7680,25 +7705,25 @@
         <v>143</v>
       </c>
       <c r="N64" s="175"/>
-      <c r="O64" s="223"/>
-      <c r="P64" s="224"/>
-      <c r="Q64" s="224"/>
-      <c r="R64" s="224"/>
-      <c r="S64" s="224"/>
-      <c r="T64" s="224"/>
-      <c r="U64" s="224"/>
-      <c r="V64" s="224"/>
-      <c r="W64" s="224"/>
-      <c r="X64" s="224"/>
-      <c r="Y64" s="224"/>
-      <c r="Z64" s="224"/>
-      <c r="AA64" s="224"/>
-      <c r="AB64" s="224"/>
-      <c r="AC64" s="224"/>
-      <c r="AD64" s="225"/>
+      <c r="O64" s="279"/>
+      <c r="P64" s="280"/>
+      <c r="Q64" s="280"/>
+      <c r="R64" s="280"/>
+      <c r="S64" s="280"/>
+      <c r="T64" s="280"/>
+      <c r="U64" s="280"/>
+      <c r="V64" s="280"/>
+      <c r="W64" s="280"/>
+      <c r="X64" s="280"/>
+      <c r="Y64" s="280"/>
+      <c r="Z64" s="280"/>
+      <c r="AA64" s="280"/>
+      <c r="AB64" s="280"/>
+      <c r="AC64" s="280"/>
+      <c r="AD64" s="281"/>
       <c r="AH64" s="14"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="N65" s="175"/>
       <c r="O65" s="182"/>
@@ -7719,7 +7744,7 @@
       <c r="AD65" s="182"/>
       <c r="AH65" s="14"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="N66" s="175"/>
       <c r="O66" s="182"/>
@@ -7740,7 +7765,7 @@
       <c r="AD66" s="182"/>
       <c r="AH66" s="14"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N67" s="175"/>
       <c r="O67" s="182"/>
       <c r="P67" s="182"/>
@@ -7759,47 +7784,28 @@
       <c r="AC67" s="182"/>
       <c r="AD67" s="182"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N68" s="175"/>
     </row>
-    <row r="69" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="N69" s="181"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="R0u/bZzfvofvHo9HKAqllZcKVNwD4Pqz++sozZh+LmARazUyfNjXbD6MLNyOAVxsvOWLG/EqcCF3JT4/IQtMAA==" saltValue="vbEGenma5H7Im9k/JMzelA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="L35:L46"/>
-    <mergeCell ref="O35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="O50:AD50"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U4:AC4"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="B52:M52"/>
+    <mergeCell ref="B55:M55"/>
+    <mergeCell ref="O63:AD64"/>
+    <mergeCell ref="B61:M61"/>
+    <mergeCell ref="B59:M59"/>
+    <mergeCell ref="B54:M54"/>
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="B50:M50"/>
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="I3:N4"/>
+    <mergeCell ref="L11:L22"/>
     <mergeCell ref="B1:AC1"/>
     <mergeCell ref="O51:AD52"/>
     <mergeCell ref="O56:AD57"/>
@@ -7816,19 +7822,38 @@
     <mergeCell ref="P21:S21"/>
     <mergeCell ref="B56:M56"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B48:M48"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="B50:M50"/>
-    <mergeCell ref="B51:M51"/>
-    <mergeCell ref="I3:N4"/>
-    <mergeCell ref="L11:L22"/>
-    <mergeCell ref="B52:M52"/>
-    <mergeCell ref="B55:M55"/>
-    <mergeCell ref="O63:AD64"/>
-    <mergeCell ref="B61:M61"/>
-    <mergeCell ref="B59:M59"/>
-    <mergeCell ref="B54:M54"/>
-    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U4:AC4"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="O50:AD50"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="L35:L46"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="P46:S46"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="E11:E46">
@@ -7903,415 +7928,415 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="192" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="183"/>
+    <col min="1" max="1" width="23.1640625" style="192" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="183"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="188" t="str">
         <f>Matches!U4</f>
         <v>Adam</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="189" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="190" t="str">
         <f>TEXT(Matches!F11,"#0")&amp;"-"&amp;TEXT(Matches!G11,"#0")</f>
         <v>1-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="190" t="str">
         <f>TEXT(Matches!F12,"#0")&amp;"-"&amp;TEXT(Matches!G12,"#0")</f>
         <v>1-1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="190" t="str">
         <f>TEXT(Matches!F13,"#0")&amp;"-"&amp;TEXT(Matches!G13,"#0")</f>
         <v>1-0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="190" t="str">
         <f>TEXT(Matches!F14,"#0")&amp;"-"&amp;TEXT(Matches!G14,"#0")</f>
         <v>1-0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="190" t="str">
         <f>TEXT(Matches!F15,"#0")&amp;"-"&amp;TEXT(Matches!G15,"#0")</f>
         <v>2-0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="190" t="str">
         <f>TEXT(Matches!F16,"#0")&amp;"-"&amp;TEXT(Matches!G16,"#0")</f>
         <v>1-0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="190" t="str">
         <f>TEXT(Matches!F17,"#0")&amp;"-"&amp;TEXT(Matches!G17,"#0")</f>
         <v>1-0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="190" t="str">
         <f>TEXT(Matches!F18,"#0")&amp;"-"&amp;TEXT(Matches!G18,"#0")</f>
         <v>1-1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="190" t="str">
         <f>TEXT(Matches!F19,"#0")&amp;"-"&amp;TEXT(Matches!G19,"#0")</f>
         <v>2-0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="190" t="str">
         <f>TEXT(Matches!F20,"#0")&amp;"-"&amp;TEXT(Matches!G20,"#0")</f>
         <v>2-0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="190" t="str">
         <f>TEXT(Matches!F21,"#0")&amp;"-"&amp;TEXT(Matches!G21,"#0")</f>
         <v>0-4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="190" t="str">
         <f>TEXT(Matches!F22,"#0")&amp;"-"&amp;TEXT(Matches!G22,"#0")</f>
         <v>1-1</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="str">
         <f>TEXT(Matches!F23,"#0")&amp;"-"&amp;TEXT(Matches!G23,"#0")</f>
         <v>0-2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="190" t="str">
         <f>TEXT(Matches!F24,"#0")&amp;"-"&amp;TEXT(Matches!G24,"#0")</f>
         <v>2-0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="190" t="str">
         <f>TEXT(Matches!F25,"#0")&amp;"-"&amp;TEXT(Matches!G25,"#0")</f>
         <v>2-0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="190" t="str">
         <f>TEXT(Matches!F26,"#0")&amp;"-"&amp;TEXT(Matches!G26,"#0")</f>
         <v>2-1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="190" t="str">
         <f>TEXT(Matches!F27,"#0")&amp;"-"&amp;TEXT(Matches!G27,"#0")</f>
         <v>1-2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="190" t="str">
         <f>TEXT(Matches!F28,"#0")&amp;"-"&amp;TEXT(Matches!G28,"#0")</f>
         <v>2-0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="190" t="str">
         <f>TEXT(Matches!F29,"#0")&amp;"-"&amp;TEXT(Matches!G29,"#0")</f>
         <v>1-0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="190" t="str">
         <f>TEXT(Matches!F30,"#0")&amp;"-"&amp;TEXT(Matches!G30,"#0")</f>
         <v>1-0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="190" t="str">
         <f>TEXT(Matches!F31,"#0")&amp;"-"&amp;TEXT(Matches!G31,"#0")</f>
         <v>3-0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="190" t="str">
         <f>TEXT(Matches!F32,"#0")&amp;"-"&amp;TEXT(Matches!G32,"#0")</f>
         <v>0-3</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="190" t="str">
         <f>TEXT(Matches!F33,"#0")&amp;"-"&amp;TEXT(Matches!G33,"#0")</f>
         <v>1-2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="190" t="str">
         <f>TEXT(Matches!F34,"#0")&amp;"-"&amp;TEXT(Matches!G34,"#0")</f>
         <v>1-1</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="190" t="str">
         <f>TEXT(Matches!F35,"#0")&amp;"-"&amp;TEXT(Matches!G35,"#0")</f>
         <v>1-2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="190" t="str">
         <f>TEXT(Matches!F36,"#0")&amp;"-"&amp;TEXT(Matches!G36,"#0")</f>
         <v>2-0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="190" t="str">
         <f>TEXT(Matches!F37,"#0")&amp;"-"&amp;TEXT(Matches!G37,"#0")</f>
         <v>1-3</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="190" t="str">
         <f>TEXT(Matches!F38,"#0")&amp;"-"&amp;TEXT(Matches!G38,"#0")</f>
         <v>2-1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="190" t="str">
         <f>TEXT(Matches!F39,"#0")&amp;"-"&amp;TEXT(Matches!G39,"#0")</f>
         <v>2-1</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="190" t="str">
         <f>TEXT(Matches!F40,"#0")&amp;"-"&amp;TEXT(Matches!G40,"#0")</f>
         <v>0-5</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="190" t="str">
         <f>TEXT(Matches!F41,"#0")&amp;"-"&amp;TEXT(Matches!G41,"#0")</f>
         <v>2-0</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="190" t="str">
         <f>TEXT(Matches!F42,"#0")&amp;"-"&amp;TEXT(Matches!G42,"#0")</f>
         <v>0-2</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="190" t="str">
         <f>TEXT(Matches!F43,"#0")&amp;"-"&amp;TEXT(Matches!G43,"#0")</f>
         <v>1-1</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="190" t="str">
         <f>TEXT(Matches!F44,"#0")&amp;"-"&amp;TEXT(Matches!G44,"#0")</f>
         <v>0-3</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="190" t="str">
         <f>TEXT(Matches!F45,"#0")&amp;"-"&amp;TEXT(Matches!G45,"#0")</f>
         <v>0-2</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="190" t="str">
         <f>TEXT(Matches!F46,"#0")&amp;"-"&amp;TEXT(Matches!G46,"#0")</f>
         <v>2-0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="191" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="190" t="str">
         <f>Matches!P11</f>
         <v>Italy</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="190" t="str">
         <f>Matches!P12</f>
         <v>Turkey</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="190" t="str">
         <f>Matches!P16</f>
         <v>Belgium</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="190" t="str">
         <f>Matches!P17</f>
         <v>Russia</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="190" t="str">
         <f>Matches!P21</f>
         <v>Netherlands</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="190" t="str">
         <f>Matches!P22</f>
         <v>Ukraine</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="190" t="str">
         <f>Matches!P26</f>
         <v>England</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="190" t="str">
         <f>Matches!P27</f>
         <v>Croatia</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="190" t="str">
         <f>Matches!P31</f>
         <v>Spain</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="190" t="str">
         <f>Matches!P32</f>
         <v>Poland</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="190" t="str">
         <f>Matches!P36</f>
         <v>France</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="190" t="str">
         <f>Matches!P37</f>
         <v>Germany</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="190" t="str">
         <f>Matches!P43</f>
         <v>Sweden</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="190" t="str">
         <f>Matches!P44</f>
         <v>Portugal</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="190" t="str">
         <f>Matches!P45</f>
         <v>Denmark</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="190" t="str">
         <f>Matches!P46</f>
         <v>Austria</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="191" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="190">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="190" t="str">
         <f>Matches!B49</f>
-        <v>0</v>
+        <v>France</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="190">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="190" t="str">
         <f>Matches!B50</f>
-        <v>0</v>
+        <v>Germany</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="190">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="190" t="str">
         <f>Matches!B51</f>
-        <v>0</v>
+        <v>Italy</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="190">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="190" t="str">
         <f>Matches!B52</f>
-        <v>0</v>
+        <v>Netherlands</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="191" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="190">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="190" t="str">
         <f>Matches!B55</f>
-        <v>0</v>
+        <v>France</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="190">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="190" t="str">
         <f>Matches!B56</f>
-        <v>0</v>
+        <v>Germany</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="191" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="190">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="190" t="str">
         <f>Matches!B59</f>
-        <v>0</v>
+        <v>France</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="191" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="190" t="str">
         <f>Matches!M62</f>
         <v>Belgium</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="190" t="str">
         <f>Matches!M63</f>
         <v>Kylian Mbappe</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="190" t="str">
         <f>Matches!M64</f>
         <v>Foden</v>
@@ -8337,22 +8362,22 @@
       <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="1.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="1.5" customWidth="1"/>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="2.44140625" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -8366,11 +8391,11 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -8388,7 +8413,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>1</v>
       </c>
@@ -8408,7 +8433,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>2</v>
       </c>
@@ -8428,7 +8453,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>3</v>
       </c>
@@ -8448,7 +8473,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>4</v>
       </c>
@@ -8468,7 +8493,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>5</v>
       </c>
@@ -8488,7 +8513,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>6</v>
       </c>
@@ -8508,7 +8533,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>7</v>
       </c>
@@ -8528,7 +8553,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>8</v>
       </c>
@@ -8548,7 +8573,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>9</v>
       </c>
@@ -8568,7 +8593,7 @@
       <c r="O13" s="290"/>
       <c r="P13" s="290"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>10</v>
       </c>
@@ -8588,7 +8613,7 @@
       <c r="O14" s="290"/>
       <c r="P14" s="290"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>11</v>
       </c>
@@ -8608,7 +8633,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>12</v>
       </c>
@@ -8628,7 +8653,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>13</v>
       </c>
@@ -8648,7 +8673,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>14</v>
       </c>
@@ -8668,7 +8693,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>15</v>
       </c>
@@ -8688,7 +8713,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>16</v>
       </c>
@@ -8708,7 +8733,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>17</v>
       </c>
@@ -8728,7 +8753,7 @@
       <c r="O21" s="290"/>
       <c r="P21" s="290"/>
     </row>
-    <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>18</v>
       </c>
@@ -8748,7 +8773,7 @@
       <c r="O22" s="290"/>
       <c r="P22" s="290"/>
     </row>
-    <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>19</v>
       </c>
@@ -8768,7 +8793,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>20</v>
       </c>
@@ -8788,7 +8813,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>21</v>
       </c>
@@ -8808,7 +8833,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>22</v>
       </c>
@@ -8828,7 +8853,7 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>23</v>
       </c>
@@ -8848,7 +8873,7 @@
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>24</v>
       </c>
@@ -8868,20 +8893,20 @@
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="19"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
@@ -8894,80 +8919,80 @@
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -8991,17 +9016,17 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="112" width="8.77734375" style="194" customWidth="1"/>
-    <col min="113" max="119" width="8.77734375" style="200" customWidth="1"/>
-    <col min="120" max="240" width="8.77734375" style="194" customWidth="1"/>
-    <col min="241" max="247" width="8.77734375" style="200" customWidth="1"/>
-    <col min="248" max="256" width="8.77734375" style="194" customWidth="1"/>
-    <col min="257" max="16384" width="9.109375" style="194"/>
+    <col min="1" max="112" width="8.83203125" style="194" customWidth="1"/>
+    <col min="113" max="119" width="8.83203125" style="200" customWidth="1"/>
+    <col min="120" max="240" width="8.83203125" style="194" customWidth="1"/>
+    <col min="241" max="247" width="8.83203125" style="200" customWidth="1"/>
+    <col min="248" max="256" width="8.83203125" style="194" customWidth="1"/>
+    <col min="257" max="16384" width="9.1640625" style="194"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="21">
         <v>1</v>
       </c>
@@ -9266,7 +9291,7 @@
       <c r="IU1" s="21"/>
       <c r="IV1" s="21"/>
     </row>
-    <row r="2" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -9572,7 +9597,7 @@
       <c r="IU2" s="21"/>
       <c r="IV2" s="21"/>
     </row>
-    <row r="3" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
@@ -10076,7 +10101,7 @@
       <c r="IU3" s="21"/>
       <c r="IV3" s="21"/>
     </row>
-    <row r="4" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <f>VLOOKUP(B4,CW4:CX8,2,FALSE)</f>
         <v>2</v>
@@ -10518,7 +10543,7 @@
       <c r="IU4" s="21"/>
       <c r="IV4" s="21"/>
     </row>
-    <row r="5" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <f>VLOOKUP(B5,CW4:CX8,2,FALSE)</f>
         <v>1</v>
@@ -11020,7 +11045,7 @@
       <c r="IU5" s="21"/>
       <c r="IV5" s="21"/>
     </row>
-    <row r="6" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <f>VLOOKUP(B6,CW4:CX8,2,FALSE)</f>
         <v>4</v>
@@ -11579,7 +11604,7 @@
       <c r="IU6" s="21"/>
       <c r="IV6" s="21"/>
     </row>
-    <row r="7" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <f>VLOOKUP(B7,CW4:CX8,2,FALSE)</f>
         <v>3</v>
@@ -12195,7 +12220,7 @@
       <c r="IU7" s="21"/>
       <c r="IV7" s="21"/>
     </row>
-    <row r="8" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -12519,7 +12544,7 @@
       <c r="IU8" s="21"/>
       <c r="IV8" s="21"/>
     </row>
-    <row r="9" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -12799,7 +12824,7 @@
       <c r="IU9" s="21"/>
       <c r="IV9" s="21"/>
     </row>
-    <row r="10" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -13077,7 +13102,7 @@
       <c r="IU10" s="21"/>
       <c r="IV10" s="21"/>
     </row>
-    <row r="11" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <f>VLOOKUP(B11,CW11:CX15,2,FALSE)</f>
         <v>1</v>
@@ -13473,7 +13498,7 @@
       <c r="IU11" s="21"/>
       <c r="IV11" s="21"/>
     </row>
-    <row r="12" spans="1:256" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:256" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <f>VLOOKUP(B12,CW11:CX15,2,FALSE)</f>
         <v>2</v>
@@ -13951,7 +13976,7 @@
       <c r="IU12" s="198"/>
       <c r="IV12" s="198"/>
     </row>
-    <row r="13" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <f>IF(IW21=0,VLOOKUP(B13,CW11:CX15,2,FALSE),1)</f>
         <v>3</v>
@@ -14498,7 +14523,7 @@
       <c r="IU13" s="198"/>
       <c r="IV13" s="198"/>
     </row>
-    <row r="14" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <f>VLOOKUP(B14,CW11:CX15,2,FALSE)</f>
         <v>4</v>
@@ -15102,7 +15127,7 @@
       <c r="IU14" s="198"/>
       <c r="IV14" s="198"/>
     </row>
-    <row r="15" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -15414,7 +15439,7 @@
       <c r="IU15" s="198"/>
       <c r="IV15" s="198"/>
     </row>
-    <row r="16" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -15728,7 +15753,7 @@
       <c r="IU16" s="198"/>
       <c r="IV16" s="198"/>
     </row>
-    <row r="17" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -16037,7 +16062,7 @@
       <c r="IU17" s="198"/>
       <c r="IV17" s="198"/>
     </row>
-    <row r="18" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <f>VLOOKUP(B18,CW18:CX22,2,FALSE)</f>
         <v>1</v>
@@ -16469,7 +16494,7 @@
       <c r="IU18" s="198"/>
       <c r="IV18" s="198"/>
     </row>
-    <row r="19" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <f>VLOOKUP(B19,CW18:CX22,2,FALSE)</f>
         <v>2</v>
@@ -16961,7 +16986,7 @@
       <c r="IU19" s="198"/>
       <c r="IV19" s="198"/>
     </row>
-    <row r="20" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <f>VLOOKUP(B20,CW18:CX22,2,FALSE)</f>
         <v>3</v>
@@ -17510,7 +17535,7 @@
       <c r="IU20" s="198"/>
       <c r="IV20" s="198"/>
     </row>
-    <row r="21" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <f>VLOOKUP(B21,CW18:CX22,2,FALSE)</f>
         <v>4</v>
@@ -18116,7 +18141,7 @@
       <c r="IU21" s="198"/>
       <c r="IV21" s="198"/>
     </row>
-    <row r="22" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -18430,7 +18455,7 @@
       <c r="IU22" s="198"/>
       <c r="IV22" s="198"/>
     </row>
-    <row r="23" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -18742,7 +18767,7 @@
       <c r="IU23" s="198"/>
       <c r="IV23" s="198"/>
     </row>
-    <row r="24" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -19056,7 +19081,7 @@
       <c r="IU24" s="198"/>
       <c r="IV24" s="198"/>
     </row>
-    <row r="25" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <f>VLOOKUP(B25,CW25:CX29,2,FALSE)</f>
         <v>4</v>
@@ -19486,7 +19511,7 @@
       <c r="IU25" s="198"/>
       <c r="IV25" s="198"/>
     </row>
-    <row r="26" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <f>VLOOKUP(B26,CW25:CX29,2,FALSE)</f>
         <v>3</v>
@@ -19978,7 +20003,7 @@
       <c r="IU26" s="198"/>
       <c r="IV26" s="198"/>
     </row>
-    <row r="27" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <f>VLOOKUP(B27,CW25:CX29,2,FALSE)</f>
         <v>1</v>
@@ -20525,7 +20550,7 @@
       <c r="IU27" s="21"/>
       <c r="IV27" s="198"/>
     </row>
-    <row r="28" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <f>VLOOKUP(B28,CW25:CX29,2,FALSE)</f>
         <v>2</v>
@@ -21100,7 +21125,7 @@
       <c r="IU28" s="21"/>
       <c r="IV28" s="198"/>
     </row>
-    <row r="29" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -21384,7 +21409,7 @@
       <c r="IU29" s="21"/>
       <c r="IV29" s="198"/>
     </row>
-    <row r="30" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -21672,7 +21697,7 @@
       <c r="IU30" s="21"/>
       <c r="IV30" s="198"/>
     </row>
-    <row r="31" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <f>VLOOKUP(B31,CW31:CX35,2,FALSE)</f>
         <v>1</v>
@@ -22071,7 +22096,7 @@
       <c r="IU31" s="21"/>
       <c r="IV31" s="198"/>
     </row>
-    <row r="32" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <f>VLOOKUP(B32,CW31:CX35,2,FALSE)</f>
         <v>3</v>
@@ -22532,7 +22557,7 @@
       <c r="IU32" s="21"/>
       <c r="IV32" s="198"/>
     </row>
-    <row r="33" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <f>VLOOKUP(B33,CW31:CX35,2,FALSE)</f>
         <v>2</v>
@@ -23048,7 +23073,7 @@
       <c r="IU33" s="21"/>
       <c r="IV33" s="198"/>
     </row>
-    <row r="34" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <f>VLOOKUP(B34,CW31:CX35,2,FALSE)</f>
         <v>4</v>
@@ -23618,7 +23643,7 @@
       <c r="IU34" s="21"/>
       <c r="IV34" s="21"/>
     </row>
-    <row r="35" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -23896,7 +23921,7 @@
       <c r="IU35" s="21"/>
       <c r="IV35" s="21"/>
     </row>
-    <row r="36" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -24174,7 +24199,7 @@
       <c r="IU36" s="21"/>
       <c r="IV36" s="21"/>
     </row>
-    <row r="37" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <f>VLOOKUP(B37,CW37:CX41,2,FALSE)</f>
         <v>1</v>
@@ -24570,7 +24595,7 @@
       <c r="IU37" s="21"/>
       <c r="IV37" s="21"/>
     </row>
-    <row r="38" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <f>VLOOKUP(B38,CW37:CX41,2,FALSE)</f>
         <v>2</v>
@@ -25026,7 +25051,7 @@
       <c r="IU38" s="21"/>
       <c r="IV38" s="21"/>
     </row>
-    <row r="39" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <f>VLOOKUP(B39,CW37:CX41,2,FALSE)</f>
         <v>4</v>
@@ -25519,7 +25544,7 @@
       <c r="IU39" s="21"/>
       <c r="IV39" s="21"/>
     </row>
-    <row r="40" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <f>VLOOKUP(B40,CW37:CX41,2,FALSE)</f>
         <v>3</v>
@@ -26069,7 +26094,7 @@
       <c r="IU40" s="21"/>
       <c r="IV40" s="21"/>
     </row>
-    <row r="41" spans="1:256" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:256" ht="14" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -26327,12 +26352,12 @@
       <c r="IU41" s="21"/>
       <c r="IV41" s="21"/>
     </row>
-    <row r="42" spans="1:256" ht="11.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:256" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="DC42" s="194" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:256" x14ac:dyDescent="0.15">
       <c r="T43" s="194">
         <f>IF(U44="",SUM(AG4:AL4),IF(U45="",SUM(AG5:AL5),IF(U46="",SUM(AG6:AL6),IF(U47="",SUM(AG7:AL7),0))))</f>
         <v>0</v>
@@ -26456,7 +26481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:256" x14ac:dyDescent="0.15">
       <c r="I44" s="194">
         <f>SUMPRODUCT((I4:I7=I4)*(H4:H7=H4)*(F4:F7&gt;F4))+1</f>
         <v>1</v>
@@ -26542,7 +26567,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:256" x14ac:dyDescent="0.15">
       <c r="I45" s="194">
         <f>SUMPRODUCT((I4:I7=I5)*(H4:H7=H5)*(F4:F7&gt;F5))+1</f>
         <v>1</v>
@@ -26708,7 +26733,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:256" x14ac:dyDescent="0.15">
       <c r="I46" s="194">
         <f>SUMPRODUCT((I4:I7=I6)*(H4:H7=H6)*(F4:F7&gt;F6))+1</f>
         <v>1</v>
@@ -26874,7 +26899,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:256" x14ac:dyDescent="0.15">
       <c r="I47" s="194">
         <f>SUMPRODUCT((I4:I7=I7)*(H4:H7=H7)*(F4:F7&gt;F7))+1</f>
         <v>1</v>
@@ -27040,7 +27065,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B50" s="194" t="str">
         <f>B4</f>
         <v>Turkey</v>
@@ -27057,7 +27082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B51" s="194" t="str">
         <f t="shared" ref="B51:B53" si="76">B5</f>
         <v>Italy</v>
@@ -27150,7 +27175,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B52" s="194" t="str">
         <f t="shared" si="76"/>
         <v>Wales</v>
@@ -27323,7 +27348,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B53" s="194" t="str">
         <f t="shared" si="76"/>
         <v>Switzerland</v>
@@ -27496,7 +27521,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:59" x14ac:dyDescent="0.15">
       <c r="C54" s="194" t="s">
         <v>100</v>
       </c>
@@ -27665,17 +27690,17 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:59" x14ac:dyDescent="0.15">
       <c r="C55" s="194" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:59" x14ac:dyDescent="0.15">
       <c r="C56" s="194" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:59" x14ac:dyDescent="0.15">
       <c r="C57" s="194" t="s">
         <v>103</v>
       </c>
@@ -27688,7 +27713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:59" x14ac:dyDescent="0.15">
       <c r="C58" s="194" t="s">
         <v>104</v>
       </c>
@@ -27777,7 +27802,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:59" x14ac:dyDescent="0.15">
       <c r="C59" s="194" t="s">
         <v>105</v>
       </c>
@@ -27946,7 +27971,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:59" x14ac:dyDescent="0.15">
       <c r="I60" s="194">
         <f>SUMPRODUCT((I18:I21=I20)*(H18:H21=H20)*(F18:F21&gt;F20))+1</f>
         <v>1</v>
@@ -28112,7 +28137,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:59" x14ac:dyDescent="0.15">
       <c r="I61" s="194">
         <f>SUMPRODUCT((I18:I21=I21)*(H18:H21=H21)*(F18:F21&gt;F21))+1</f>
         <v>1</v>
@@ -28278,7 +28303,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:59" x14ac:dyDescent="0.15">
       <c r="T64" s="194">
         <f>IF(U65="",SUM(AG25:AL25),IF(U66="",SUM(AG26:AL26),IF(U67="",SUM(AG27:AL27),IF(U68="",SUM(AG28:AL28),0))))</f>
         <v>0</v>
@@ -28288,7 +28313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I65" s="194">
         <f>SUMPRODUCT((I25:I28=I25)*(H25:H28=H25)*(F25:F28&gt;F25))+1</f>
         <v>1</v>
@@ -28374,7 +28399,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I66" s="194">
         <f>SUMPRODUCT((I25:I28=I26)*(H25:H28=H26)*(F25:F28&gt;F26))+1</f>
         <v>1</v>
@@ -28540,7 +28565,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I67" s="194">
         <f>SUMPRODUCT((I25:I28=I27)*(H25:H28=H27)*(F25:F28&gt;F27))+1</f>
         <v>1</v>
@@ -28706,7 +28731,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I68" s="194">
         <f>SUMPRODUCT((I25:I28=I28)*(H25:H28=H28)*(F25:F28&gt;F28))+1</f>
         <v>1</v>
@@ -28872,7 +28897,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:59" x14ac:dyDescent="0.15">
       <c r="T70" s="194">
         <f>IF(U71="",SUM(AG31:AL31),IF(U72="",SUM(AG32:AL32),IF(U73="",SUM(AG33:AL33),IF(U74="",SUM(AG34:AL34),0))))</f>
         <v>0</v>
@@ -28882,7 +28907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I71" s="194">
         <f>SUMPRODUCT((I31:I34=I31)*(H31:H34=H31)*(F31:F34&gt;F31))+1</f>
         <v>1</v>
@@ -28968,7 +28993,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I72" s="194">
         <f>SUMPRODUCT((I31:I34=I32)*(H31:H34=H32)*(F31:F34&gt;F32))+1</f>
         <v>1</v>
@@ -29134,7 +29159,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I73" s="194">
         <f>SUMPRODUCT((I31:I34=I33)*(H31:H34=H33)*(F31:F34&gt;F33))+1</f>
         <v>1</v>
@@ -29300,7 +29325,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I74" s="194">
         <f>SUMPRODUCT((I31:I34=I34)*(H31:H34=H34)*(F31:F34&gt;F34))+1</f>
         <v>1</v>
@@ -29466,7 +29491,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:59" x14ac:dyDescent="0.15">
       <c r="T76" s="194">
         <f>IF(U77="",SUM(AG37:AL37),IF(U78="",SUM(AG38:AL38),IF(U79="",SUM(AG39:AL39),IF(U80="",SUM(AG40:AL40),0))))</f>
         <v>0</v>
@@ -29476,7 +29501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I77" s="194">
         <f>SUMPRODUCT((I37:I40=I37)*(H37:H40=H37)*(F37:F40&gt;F37))+1</f>
         <v>1</v>
@@ -29562,7 +29587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I78" s="194">
         <f>SUMPRODUCT((I37:I40=I38)*(H37:H40=H38)*(F37:F40&gt;F38))+1</f>
         <v>1</v>
@@ -29728,7 +29753,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I79" s="194">
         <f>SUMPRODUCT((I37:I40=I39)*(H37:H40=H39)*(F37:F40&gt;F39))+1</f>
         <v>1</v>
@@ -29894,7 +29919,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="9:59" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:59" x14ac:dyDescent="0.15">
       <c r="I80" s="194">
         <f>SUMPRODUCT((I37:I40=I40)*(H37:H40=H40)*(F37:F40&gt;F40))+1</f>
         <v>1</v>
@@ -30060,40 +30085,40 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="194">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C88" s="194" t="str">
         <f>Matches!B49</f>
-        <v>0</v>
+        <v>France</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="194">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C89" s="194" t="str">
         <f>Matches!B50</f>
-        <v>0</v>
+        <v>Germany</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="194">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C90" s="194" t="str">
         <f>Matches!B51</f>
-        <v>0</v>
+        <v>Italy</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="194">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C91" s="194" t="str">
         <f>Matches!B52</f>
-        <v>0</v>
+        <v>Netherlands</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="194">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C93" s="194" t="str">
         <f>Matches!B55</f>
-        <v>0</v>
+        <v>France</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="194">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C94" s="194" t="str">
         <f>Matches!B56</f>
-        <v>0</v>
+        <v>Germany</v>
       </c>
     </row>
   </sheetData>
